--- a/public/static/template/import_chw.xlsx
+++ b/public/static/template/import_chw.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ztang/workspace/unc/src/visit-link-admin-web/public/static/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C7A1A1-BDF1-C144-9EC1-7C6300F0138D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView xWindow="14680" yWindow="2180" windowWidth="22360" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baby Roster" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>真实姓名</t>
   </si>
@@ -47,20 +53,18 @@
   </si>
   <si>
     <t>1. 必填
-2. 社区工作者电话:11位手机号码</t>
+2. 社区工作者电话:5-20位手机号码</t>
+  </si>
+  <si>
+    <t>1.必填
+2.校验：不能超过50个字符，不允许特殊字符</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -71,7 +75,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -79,162 +83,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,194 +106,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -463,267 +130,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -738,70 +163,23 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -871,13 +249,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
-      <color rgb="00F2607A"/>
-      <color rgb="00EBABB5"/>
+      <color rgb="FFF2607A"/>
+      <color rgb="FFEBABB5"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1916,44 +1297,43 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R196"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="27.4444444444444" style="4" customWidth="1"/>
-    <col min="3" max="3" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.6666666666667" style="5" customWidth="1"/>
+    <col min="1" max="2" width="27.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="20" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.6666666666667" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.8333333333333" style="5" customWidth="1"/>
-    <col min="8" max="8" width="21.1666666666667" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" style="5" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.3333333333333" style="5" customWidth="1"/>
-    <col min="11" max="11" width="23.3333333333333" style="5" customWidth="1"/>
-    <col min="12" max="12" width="18.8333333333333" style="5" customWidth="1"/>
-    <col min="13" max="13" width="22.8333333333333" style="5" customWidth="1"/>
-    <col min="14" max="14" width="16.3333333333333" style="5" customWidth="1"/>
-    <col min="15" max="15" width="22.8333333333333" style="5" customWidth="1"/>
-    <col min="16" max="16" width="18.8333333333333" style="5" customWidth="1"/>
-    <col min="17" max="17" width="23.6666666666667" style="5" customWidth="1"/>
-    <col min="18" max="18" width="20.6666666666667" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="22.83203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" style="5" customWidth="1"/>
     <col min="19" max="19" width="9" style="5" customWidth="1"/>
     <col min="20" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.4" spans="1:18">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1985,9 +1365,9 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="88" customHeight="1" spans="1:18">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="88" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
@@ -2017,7 +1397,7 @@
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="35" customHeight="1" spans="1:18">
+    <row r="3" spans="1:18" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
@@ -2037,7 +1417,7 @@
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="4" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
@@ -2057,7 +1437,7 @@
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="5" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
@@ -2077,7 +1457,7 @@
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="6" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
@@ -2097,7 +1477,7 @@
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="7" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -2117,7 +1497,7 @@
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="8" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
@@ -2137,7 +1517,7 @@
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="9" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
@@ -2157,7 +1537,7 @@
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="10" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -2177,7 +1557,7 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
     </row>
-    <row r="11" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="11" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -2197,7 +1577,7 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
     </row>
-    <row r="12" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="12" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
@@ -2217,7 +1597,7 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="13" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
@@ -2237,7 +1617,7 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="14" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
@@ -2257,7 +1637,7 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="15" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
@@ -2277,7 +1657,7 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="16" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
@@ -2297,7 +1677,7 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="17" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
@@ -2317,7 +1697,7 @@
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
     </row>
-    <row r="18" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="18" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
@@ -2337,7 +1717,7 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
     </row>
-    <row r="19" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="19" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
@@ -2357,7 +1737,7 @@
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="20" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
@@ -2377,7 +1757,7 @@
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
     </row>
-    <row r="21" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="21" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
@@ -2397,7 +1777,7 @@
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
     </row>
-    <row r="22" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="22" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
@@ -2417,7 +1797,7 @@
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
     </row>
-    <row r="23" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="23" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
@@ -2437,7 +1817,7 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
     </row>
-    <row r="24" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="24" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
@@ -2457,7 +1837,7 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="25" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
@@ -2477,7 +1857,7 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
     </row>
-    <row r="26" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="26" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
@@ -2497,7 +1877,7 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
     </row>
-    <row r="27" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="27" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
@@ -2517,7 +1897,7 @@
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
     </row>
-    <row r="28" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="28" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
@@ -2537,7 +1917,7 @@
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="29" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
@@ -2557,7 +1937,7 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
     </row>
-    <row r="30" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="30" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="13"/>
@@ -2577,7 +1957,7 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
     </row>
-    <row r="31" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="31" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
@@ -2597,7 +1977,7 @@
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
     </row>
-    <row r="32" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="32" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
@@ -2617,7 +1997,7 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
     </row>
-    <row r="33" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="33" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
@@ -2637,7 +2017,7 @@
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
     </row>
-    <row r="34" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="34" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
@@ -2657,7 +2037,7 @@
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="35" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="13"/>
@@ -2677,7 +2057,7 @@
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="36" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="13"/>
@@ -2697,7 +2077,7 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
     </row>
-    <row r="37" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="37" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
@@ -2717,7 +2097,7 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
     </row>
-    <row r="38" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="38" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="13"/>
@@ -2737,7 +2117,7 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
     </row>
-    <row r="39" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="39" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="13"/>
@@ -2757,7 +2137,7 @@
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
     </row>
-    <row r="40" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="40" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="13"/>
@@ -2777,7 +2157,7 @@
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
     </row>
-    <row r="41" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="41" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
@@ -2797,7 +2177,7 @@
       <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
     </row>
-    <row r="42" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="42" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
@@ -2817,7 +2197,7 @@
       <c r="Q42" s="13"/>
       <c r="R42" s="13"/>
     </row>
-    <row r="43" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="43" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="13"/>
@@ -2837,7 +2217,7 @@
       <c r="Q43" s="13"/>
       <c r="R43" s="13"/>
     </row>
-    <row r="44" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="44" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
@@ -2857,7 +2237,7 @@
       <c r="Q44" s="13"/>
       <c r="R44" s="13"/>
     </row>
-    <row r="45" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="45" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
@@ -2877,7 +2257,7 @@
       <c r="Q45" s="13"/>
       <c r="R45" s="13"/>
     </row>
-    <row r="46" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="46" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="13"/>
@@ -2897,7 +2277,7 @@
       <c r="Q46" s="13"/>
       <c r="R46" s="13"/>
     </row>
-    <row r="47" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="47" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="13"/>
@@ -2917,7 +2297,7 @@
       <c r="Q47" s="13"/>
       <c r="R47" s="13"/>
     </row>
-    <row r="48" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="48" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="13"/>
@@ -2937,7 +2317,7 @@
       <c r="Q48" s="13"/>
       <c r="R48" s="13"/>
     </row>
-    <row r="49" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="49" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
@@ -2957,7 +2337,7 @@
       <c r="Q49" s="13"/>
       <c r="R49" s="13"/>
     </row>
-    <row r="50" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="50" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
@@ -2977,7 +2357,7 @@
       <c r="Q50" s="13"/>
       <c r="R50" s="13"/>
     </row>
-    <row r="51" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="51" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
@@ -2997,7 +2377,7 @@
       <c r="Q51" s="13"/>
       <c r="R51" s="13"/>
     </row>
-    <row r="52" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="52" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
@@ -3017,7 +2397,7 @@
       <c r="Q52" s="13"/>
       <c r="R52" s="13"/>
     </row>
-    <row r="53" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="53" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
@@ -3037,7 +2417,7 @@
       <c r="Q53" s="13"/>
       <c r="R53" s="13"/>
     </row>
-    <row r="54" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="54" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
@@ -3057,7 +2437,7 @@
       <c r="Q54" s="13"/>
       <c r="R54" s="13"/>
     </row>
-    <row r="55" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="55" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="13"/>
@@ -3077,7 +2457,7 @@
       <c r="Q55" s="13"/>
       <c r="R55" s="13"/>
     </row>
-    <row r="56" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="56" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
@@ -3097,7 +2477,7 @@
       <c r="Q56" s="13"/>
       <c r="R56" s="13"/>
     </row>
-    <row r="57" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="57" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="13"/>
@@ -3117,7 +2497,7 @@
       <c r="Q57" s="13"/>
       <c r="R57" s="13"/>
     </row>
-    <row r="58" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="58" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13"/>
@@ -3137,7 +2517,7 @@
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
     </row>
-    <row r="59" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="59" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="13"/>
@@ -3157,7 +2537,7 @@
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
     </row>
-    <row r="60" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="60" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="13"/>
@@ -3177,7 +2557,7 @@
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
     </row>
-    <row r="61" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="61" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="13"/>
@@ -3197,7 +2577,7 @@
       <c r="Q61" s="13"/>
       <c r="R61" s="13"/>
     </row>
-    <row r="62" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="62" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="13"/>
@@ -3217,7 +2597,7 @@
       <c r="Q62" s="13"/>
       <c r="R62" s="13"/>
     </row>
-    <row r="63" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="63" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="13"/>
@@ -3237,7 +2617,7 @@
       <c r="Q63" s="13"/>
       <c r="R63" s="13"/>
     </row>
-    <row r="64" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="64" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="13"/>
@@ -3257,7 +2637,7 @@
       <c r="Q64" s="13"/>
       <c r="R64" s="13"/>
     </row>
-    <row r="65" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="65" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="13"/>
@@ -3277,7 +2657,7 @@
       <c r="Q65" s="13"/>
       <c r="R65" s="13"/>
     </row>
-    <row r="66" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="66" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="13"/>
@@ -3297,7 +2677,7 @@
       <c r="Q66" s="13"/>
       <c r="R66" s="13"/>
     </row>
-    <row r="67" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="67" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="13"/>
@@ -3317,7 +2697,7 @@
       <c r="Q67" s="13"/>
       <c r="R67" s="13"/>
     </row>
-    <row r="68" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="68" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="13"/>
@@ -3337,7 +2717,7 @@
       <c r="Q68" s="13"/>
       <c r="R68" s="13"/>
     </row>
-    <row r="69" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="69" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="13"/>
@@ -3357,7 +2737,7 @@
       <c r="Q69" s="13"/>
       <c r="R69" s="13"/>
     </row>
-    <row r="70" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="70" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
@@ -3377,7 +2757,7 @@
       <c r="Q70" s="13"/>
       <c r="R70" s="13"/>
     </row>
-    <row r="71" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="71" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="13"/>
@@ -3397,7 +2777,7 @@
       <c r="Q71" s="13"/>
       <c r="R71" s="13"/>
     </row>
-    <row r="72" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="72" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="13"/>
@@ -3417,7 +2797,7 @@
       <c r="Q72" s="13"/>
       <c r="R72" s="13"/>
     </row>
-    <row r="73" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="73" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="13"/>
@@ -3437,7 +2817,7 @@
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
     </row>
-    <row r="74" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="74" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="13"/>
@@ -3457,7 +2837,7 @@
       <c r="Q74" s="13"/>
       <c r="R74" s="13"/>
     </row>
-    <row r="75" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="75" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="13"/>
@@ -3477,7 +2857,7 @@
       <c r="Q75" s="13"/>
       <c r="R75" s="13"/>
     </row>
-    <row r="76" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="76" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="13"/>
@@ -3497,7 +2877,7 @@
       <c r="Q76" s="13"/>
       <c r="R76" s="13"/>
     </row>
-    <row r="77" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="77" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="13"/>
@@ -3517,7 +2897,7 @@
       <c r="Q77" s="13"/>
       <c r="R77" s="13"/>
     </row>
-    <row r="78" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="78" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="13"/>
@@ -3537,7 +2917,7 @@
       <c r="Q78" s="13"/>
       <c r="R78" s="13"/>
     </row>
-    <row r="79" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="79" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="13"/>
@@ -3557,7 +2937,7 @@
       <c r="Q79" s="13"/>
       <c r="R79" s="13"/>
     </row>
-    <row r="80" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="80" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="13"/>
@@ -3577,7 +2957,7 @@
       <c r="Q80" s="13"/>
       <c r="R80" s="13"/>
     </row>
-    <row r="81" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="81" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="13"/>
@@ -3597,7 +2977,7 @@
       <c r="Q81" s="13"/>
       <c r="R81" s="13"/>
     </row>
-    <row r="82" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="82" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="13"/>
@@ -3617,7 +2997,7 @@
       <c r="Q82" s="13"/>
       <c r="R82" s="13"/>
     </row>
-    <row r="83" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="83" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="13"/>
@@ -3637,7 +3017,7 @@
       <c r="Q83" s="13"/>
       <c r="R83" s="13"/>
     </row>
-    <row r="84" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="84" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="13"/>
@@ -3657,7 +3037,7 @@
       <c r="Q84" s="13"/>
       <c r="R84" s="13"/>
     </row>
-    <row r="85" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="85" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="13"/>
@@ -3677,7 +3057,7 @@
       <c r="Q85" s="13"/>
       <c r="R85" s="13"/>
     </row>
-    <row r="86" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="86" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="13"/>
@@ -3697,7 +3077,7 @@
       <c r="Q86" s="13"/>
       <c r="R86" s="13"/>
     </row>
-    <row r="87" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="87" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="13"/>
@@ -3717,7 +3097,7 @@
       <c r="Q87" s="13"/>
       <c r="R87" s="13"/>
     </row>
-    <row r="88" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="88" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="13"/>
@@ -3737,7 +3117,7 @@
       <c r="Q88" s="13"/>
       <c r="R88" s="13"/>
     </row>
-    <row r="89" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="89" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="13"/>
@@ -3757,7 +3137,7 @@
       <c r="Q89" s="13"/>
       <c r="R89" s="13"/>
     </row>
-    <row r="90" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="90" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="13"/>
@@ -3777,7 +3157,7 @@
       <c r="Q90" s="13"/>
       <c r="R90" s="13"/>
     </row>
-    <row r="91" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="91" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="13"/>
@@ -3797,7 +3177,7 @@
       <c r="Q91" s="13"/>
       <c r="R91" s="13"/>
     </row>
-    <row r="92" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="92" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="13"/>
@@ -3817,7 +3197,7 @@
       <c r="Q92" s="13"/>
       <c r="R92" s="13"/>
     </row>
-    <row r="93" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="93" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="13"/>
@@ -3837,7 +3217,7 @@
       <c r="Q93" s="13"/>
       <c r="R93" s="13"/>
     </row>
-    <row r="94" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="94" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="13"/>
@@ -3857,7 +3237,7 @@
       <c r="Q94" s="13"/>
       <c r="R94" s="13"/>
     </row>
-    <row r="95" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="95" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="13"/>
@@ -3877,7 +3257,7 @@
       <c r="Q95" s="13"/>
       <c r="R95" s="13"/>
     </row>
-    <row r="96" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="96" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="13"/>
@@ -3897,7 +3277,7 @@
       <c r="Q96" s="13"/>
       <c r="R96" s="13"/>
     </row>
-    <row r="97" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="97" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="13"/>
@@ -3917,7 +3297,7 @@
       <c r="Q97" s="13"/>
       <c r="R97" s="13"/>
     </row>
-    <row r="98" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="98" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="13"/>
@@ -3937,7 +3317,7 @@
       <c r="Q98" s="13"/>
       <c r="R98" s="13"/>
     </row>
-    <row r="99" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="99" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="13"/>
@@ -3957,7 +3337,7 @@
       <c r="Q99" s="13"/>
       <c r="R99" s="13"/>
     </row>
-    <row r="100" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="100" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="13"/>
@@ -3977,7 +3357,7 @@
       <c r="Q100" s="13"/>
       <c r="R100" s="13"/>
     </row>
-    <row r="101" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="101" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="13"/>
@@ -3997,7 +3377,7 @@
       <c r="Q101" s="13"/>
       <c r="R101" s="13"/>
     </row>
-    <row r="102" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="102" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="13"/>
@@ -4017,7 +3397,7 @@
       <c r="Q102" s="13"/>
       <c r="R102" s="13"/>
     </row>
-    <row r="103" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="103" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="13"/>
@@ -4037,7 +3417,7 @@
       <c r="Q103" s="13"/>
       <c r="R103" s="13"/>
     </row>
-    <row r="104" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="104" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="13"/>
@@ -4057,7 +3437,7 @@
       <c r="Q104" s="13"/>
       <c r="R104" s="13"/>
     </row>
-    <row r="105" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="105" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="13"/>
@@ -4077,7 +3457,7 @@
       <c r="Q105" s="13"/>
       <c r="R105" s="13"/>
     </row>
-    <row r="106" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="106" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="13"/>
@@ -4097,7 +3477,7 @@
       <c r="Q106" s="13"/>
       <c r="R106" s="13"/>
     </row>
-    <row r="107" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="107" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="13"/>
@@ -4117,7 +3497,7 @@
       <c r="Q107" s="13"/>
       <c r="R107" s="13"/>
     </row>
-    <row r="108" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="108" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="13"/>
@@ -4137,7 +3517,7 @@
       <c r="Q108" s="13"/>
       <c r="R108" s="13"/>
     </row>
-    <row r="109" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="109" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="13"/>
@@ -4157,7 +3537,7 @@
       <c r="Q109" s="13"/>
       <c r="R109" s="13"/>
     </row>
-    <row r="110" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="110" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="13"/>
@@ -4177,7 +3557,7 @@
       <c r="Q110" s="13"/>
       <c r="R110" s="13"/>
     </row>
-    <row r="111" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="111" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="13"/>
@@ -4197,7 +3577,7 @@
       <c r="Q111" s="13"/>
       <c r="R111" s="13"/>
     </row>
-    <row r="112" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="112" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="13"/>
@@ -4217,7 +3597,7 @@
       <c r="Q112" s="13"/>
       <c r="R112" s="13"/>
     </row>
-    <row r="113" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="113" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="13"/>
@@ -4237,7 +3617,7 @@
       <c r="Q113" s="13"/>
       <c r="R113" s="13"/>
     </row>
-    <row r="114" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="114" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="13"/>
@@ -4257,7 +3637,7 @@
       <c r="Q114" s="13"/>
       <c r="R114" s="13"/>
     </row>
-    <row r="115" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="115" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="13"/>
@@ -4277,7 +3657,7 @@
       <c r="Q115" s="13"/>
       <c r="R115" s="13"/>
     </row>
-    <row r="116" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="116" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="13"/>
@@ -4297,7 +3677,7 @@
       <c r="Q116" s="13"/>
       <c r="R116" s="13"/>
     </row>
-    <row r="117" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="117" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="13"/>
@@ -4317,7 +3697,7 @@
       <c r="Q117" s="13"/>
       <c r="R117" s="13"/>
     </row>
-    <row r="118" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="118" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="13"/>
@@ -4337,7 +3717,7 @@
       <c r="Q118" s="13"/>
       <c r="R118" s="13"/>
     </row>
-    <row r="119" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="119" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="13"/>
@@ -4357,7 +3737,7 @@
       <c r="Q119" s="13"/>
       <c r="R119" s="13"/>
     </row>
-    <row r="120" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="120" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="13"/>
@@ -4377,7 +3757,7 @@
       <c r="Q120" s="13"/>
       <c r="R120" s="13"/>
     </row>
-    <row r="121" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="121" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="13"/>
@@ -4397,7 +3777,7 @@
       <c r="Q121" s="13"/>
       <c r="R121" s="13"/>
     </row>
-    <row r="122" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="122" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="13"/>
@@ -4417,7 +3797,7 @@
       <c r="Q122" s="13"/>
       <c r="R122" s="13"/>
     </row>
-    <row r="123" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="123" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="13"/>
@@ -4437,7 +3817,7 @@
       <c r="Q123" s="13"/>
       <c r="R123" s="13"/>
     </row>
-    <row r="124" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="124" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="13"/>
@@ -4457,7 +3837,7 @@
       <c r="Q124" s="13"/>
       <c r="R124" s="13"/>
     </row>
-    <row r="125" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="125" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="13"/>
@@ -4477,7 +3857,7 @@
       <c r="Q125" s="13"/>
       <c r="R125" s="13"/>
     </row>
-    <row r="126" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="126" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="13"/>
@@ -4497,7 +3877,7 @@
       <c r="Q126" s="13"/>
       <c r="R126" s="13"/>
     </row>
-    <row r="127" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="127" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="13"/>
@@ -4517,7 +3897,7 @@
       <c r="Q127" s="13"/>
       <c r="R127" s="13"/>
     </row>
-    <row r="128" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="128" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="13"/>
@@ -4537,7 +3917,7 @@
       <c r="Q128" s="13"/>
       <c r="R128" s="13"/>
     </row>
-    <row r="129" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="129" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="13"/>
@@ -4557,7 +3937,7 @@
       <c r="Q129" s="13"/>
       <c r="R129" s="13"/>
     </row>
-    <row r="130" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="130" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="13"/>
@@ -4577,7 +3957,7 @@
       <c r="Q130" s="13"/>
       <c r="R130" s="13"/>
     </row>
-    <row r="131" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="131" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="13"/>
@@ -4597,7 +3977,7 @@
       <c r="Q131" s="13"/>
       <c r="R131" s="13"/>
     </row>
-    <row r="132" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="132" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="13"/>
@@ -4617,7 +3997,7 @@
       <c r="Q132" s="13"/>
       <c r="R132" s="13"/>
     </row>
-    <row r="133" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="133" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="13"/>
@@ -4637,7 +4017,7 @@
       <c r="Q133" s="13"/>
       <c r="R133" s="13"/>
     </row>
-    <row r="134" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="134" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="13"/>
@@ -4657,7 +4037,7 @@
       <c r="Q134" s="13"/>
       <c r="R134" s="13"/>
     </row>
-    <row r="135" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="135" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="13"/>
@@ -4677,7 +4057,7 @@
       <c r="Q135" s="13"/>
       <c r="R135" s="13"/>
     </row>
-    <row r="136" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="136" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="13"/>
@@ -4697,7 +4077,7 @@
       <c r="Q136" s="13"/>
       <c r="R136" s="13"/>
     </row>
-    <row r="137" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="137" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="13"/>
@@ -4717,7 +4097,7 @@
       <c r="Q137" s="13"/>
       <c r="R137" s="13"/>
     </row>
-    <row r="138" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="138" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="13"/>
@@ -4737,7 +4117,7 @@
       <c r="Q138" s="13"/>
       <c r="R138" s="13"/>
     </row>
-    <row r="139" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="139" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="13"/>
@@ -4757,7 +4137,7 @@
       <c r="Q139" s="13"/>
       <c r="R139" s="13"/>
     </row>
-    <row r="140" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="140" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="13"/>
@@ -4777,7 +4157,7 @@
       <c r="Q140" s="13"/>
       <c r="R140" s="13"/>
     </row>
-    <row r="141" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="141" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="13"/>
@@ -4797,7 +4177,7 @@
       <c r="Q141" s="13"/>
       <c r="R141" s="13"/>
     </row>
-    <row r="142" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="142" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="13"/>
@@ -4817,7 +4197,7 @@
       <c r="Q142" s="13"/>
       <c r="R142" s="13"/>
     </row>
-    <row r="143" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="143" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="13"/>
@@ -4837,7 +4217,7 @@
       <c r="Q143" s="13"/>
       <c r="R143" s="13"/>
     </row>
-    <row r="144" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="144" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="13"/>
@@ -4857,7 +4237,7 @@
       <c r="Q144" s="13"/>
       <c r="R144" s="13"/>
     </row>
-    <row r="145" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="145" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="13"/>
@@ -4877,7 +4257,7 @@
       <c r="Q145" s="13"/>
       <c r="R145" s="13"/>
     </row>
-    <row r="146" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="146" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="13"/>
@@ -4897,7 +4277,7 @@
       <c r="Q146" s="13"/>
       <c r="R146" s="13"/>
     </row>
-    <row r="147" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="147" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="13"/>
@@ -4917,7 +4297,7 @@
       <c r="Q147" s="13"/>
       <c r="R147" s="13"/>
     </row>
-    <row r="148" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="148" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="13"/>
@@ -4937,7 +4317,7 @@
       <c r="Q148" s="13"/>
       <c r="R148" s="13"/>
     </row>
-    <row r="149" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="149" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="13"/>
@@ -4957,7 +4337,7 @@
       <c r="Q149" s="13"/>
       <c r="R149" s="13"/>
     </row>
-    <row r="150" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="150" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="13"/>
@@ -4977,7 +4357,7 @@
       <c r="Q150" s="13"/>
       <c r="R150" s="13"/>
     </row>
-    <row r="151" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="151" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="13"/>
@@ -4997,7 +4377,7 @@
       <c r="Q151" s="13"/>
       <c r="R151" s="13"/>
     </row>
-    <row r="152" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="152" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="13"/>
@@ -5017,7 +4397,7 @@
       <c r="Q152" s="13"/>
       <c r="R152" s="13"/>
     </row>
-    <row r="153" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="153" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="13"/>
@@ -5037,7 +4417,7 @@
       <c r="Q153" s="13"/>
       <c r="R153" s="13"/>
     </row>
-    <row r="154" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="154" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="13"/>
@@ -5057,7 +4437,7 @@
       <c r="Q154" s="13"/>
       <c r="R154" s="13"/>
     </row>
-    <row r="155" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="155" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="13"/>
@@ -5077,7 +4457,7 @@
       <c r="Q155" s="13"/>
       <c r="R155" s="13"/>
     </row>
-    <row r="156" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="156" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="13"/>
@@ -5097,7 +4477,7 @@
       <c r="Q156" s="13"/>
       <c r="R156" s="13"/>
     </row>
-    <row r="157" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="157" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="13"/>
@@ -5117,7 +4497,7 @@
       <c r="Q157" s="13"/>
       <c r="R157" s="13"/>
     </row>
-    <row r="158" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="158" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="13"/>
@@ -5137,7 +4517,7 @@
       <c r="Q158" s="13"/>
       <c r="R158" s="13"/>
     </row>
-    <row r="159" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="159" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="13"/>
@@ -5157,7 +4537,7 @@
       <c r="Q159" s="13"/>
       <c r="R159" s="13"/>
     </row>
-    <row r="160" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="160" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="13"/>
@@ -5177,7 +4557,7 @@
       <c r="Q160" s="13"/>
       <c r="R160" s="13"/>
     </row>
-    <row r="161" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="161" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="13"/>
@@ -5197,7 +4577,7 @@
       <c r="Q161" s="13"/>
       <c r="R161" s="13"/>
     </row>
-    <row r="162" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="162" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="13"/>
@@ -5217,7 +4597,7 @@
       <c r="Q162" s="13"/>
       <c r="R162" s="13"/>
     </row>
-    <row r="163" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="163" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="13"/>
@@ -5237,7 +4617,7 @@
       <c r="Q163" s="13"/>
       <c r="R163" s="13"/>
     </row>
-    <row r="164" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="164" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="13"/>
@@ -5257,7 +4637,7 @@
       <c r="Q164" s="13"/>
       <c r="R164" s="13"/>
     </row>
-    <row r="165" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="165" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="13"/>
@@ -5277,7 +4657,7 @@
       <c r="Q165" s="13"/>
       <c r="R165" s="13"/>
     </row>
-    <row r="166" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="166" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="13"/>
@@ -5297,7 +4677,7 @@
       <c r="Q166" s="13"/>
       <c r="R166" s="13"/>
     </row>
-    <row r="167" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="167" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="13"/>
@@ -5317,7 +4697,7 @@
       <c r="Q167" s="13"/>
       <c r="R167" s="13"/>
     </row>
-    <row r="168" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="168" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="13"/>
@@ -5337,7 +4717,7 @@
       <c r="Q168" s="13"/>
       <c r="R168" s="13"/>
     </row>
-    <row r="169" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="169" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="13"/>
@@ -5357,7 +4737,7 @@
       <c r="Q169" s="13"/>
       <c r="R169" s="13"/>
     </row>
-    <row r="170" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="170" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="13"/>
@@ -5377,7 +4757,7 @@
       <c r="Q170" s="13"/>
       <c r="R170" s="13"/>
     </row>
-    <row r="171" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="171" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="13"/>
@@ -5397,7 +4777,7 @@
       <c r="Q171" s="13"/>
       <c r="R171" s="13"/>
     </row>
-    <row r="172" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="172" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="13"/>
@@ -5417,7 +4797,7 @@
       <c r="Q172" s="13"/>
       <c r="R172" s="13"/>
     </row>
-    <row r="173" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="173" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="13"/>
@@ -5437,7 +4817,7 @@
       <c r="Q173" s="13"/>
       <c r="R173" s="13"/>
     </row>
-    <row r="174" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="174" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="13"/>
@@ -5457,7 +4837,7 @@
       <c r="Q174" s="13"/>
       <c r="R174" s="13"/>
     </row>
-    <row r="175" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="175" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="13"/>
@@ -5477,7 +4857,7 @@
       <c r="Q175" s="13"/>
       <c r="R175" s="13"/>
     </row>
-    <row r="176" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="176" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="13"/>
@@ -5497,7 +4877,7 @@
       <c r="Q176" s="13"/>
       <c r="R176" s="13"/>
     </row>
-    <row r="177" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="177" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="13"/>
@@ -5517,7 +4897,7 @@
       <c r="Q177" s="13"/>
       <c r="R177" s="13"/>
     </row>
-    <row r="178" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="178" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="13"/>
@@ -5537,7 +4917,7 @@
       <c r="Q178" s="13"/>
       <c r="R178" s="13"/>
     </row>
-    <row r="179" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="179" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="13"/>
@@ -5557,7 +4937,7 @@
       <c r="Q179" s="13"/>
       <c r="R179" s="13"/>
     </row>
-    <row r="180" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="180" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="13"/>
@@ -5577,7 +4957,7 @@
       <c r="Q180" s="13"/>
       <c r="R180" s="13"/>
     </row>
-    <row r="181" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="181" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="13"/>
@@ -5597,7 +4977,7 @@
       <c r="Q181" s="13"/>
       <c r="R181" s="13"/>
     </row>
-    <row r="182" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="182" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="13"/>
@@ -5617,7 +4997,7 @@
       <c r="Q182" s="13"/>
       <c r="R182" s="13"/>
     </row>
-    <row r="183" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="183" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="13"/>
@@ -5637,7 +5017,7 @@
       <c r="Q183" s="13"/>
       <c r="R183" s="13"/>
     </row>
-    <row r="184" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="184" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="13"/>
@@ -5657,7 +5037,7 @@
       <c r="Q184" s="13"/>
       <c r="R184" s="13"/>
     </row>
-    <row r="185" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="185" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="13"/>
@@ -5677,7 +5057,7 @@
       <c r="Q185" s="13"/>
       <c r="R185" s="13"/>
     </row>
-    <row r="186" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="186" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="13"/>
@@ -5697,7 +5077,7 @@
       <c r="Q186" s="13"/>
       <c r="R186" s="13"/>
     </row>
-    <row r="187" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="187" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="13"/>
@@ -5717,7 +5097,7 @@
       <c r="Q187" s="13"/>
       <c r="R187" s="13"/>
     </row>
-    <row r="188" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="188" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="13"/>
@@ -5737,7 +5117,7 @@
       <c r="Q188" s="13"/>
       <c r="R188" s="13"/>
     </row>
-    <row r="189" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="189" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="13"/>
@@ -5757,7 +5137,7 @@
       <c r="Q189" s="13"/>
       <c r="R189" s="13"/>
     </row>
-    <row r="190" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="190" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="13"/>
@@ -5777,7 +5157,7 @@
       <c r="Q190" s="13"/>
       <c r="R190" s="13"/>
     </row>
-    <row r="191" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="191" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="13"/>
@@ -5797,7 +5177,7 @@
       <c r="Q191" s="13"/>
       <c r="R191" s="13"/>
     </row>
-    <row r="192" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="192" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="13"/>
@@ -5817,7 +5197,7 @@
       <c r="Q192" s="13"/>
       <c r="R192" s="13"/>
     </row>
-    <row r="193" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="193" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="13"/>
@@ -5837,7 +5217,7 @@
       <c r="Q193" s="13"/>
       <c r="R193" s="13"/>
     </row>
-    <row r="194" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="194" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="13"/>
@@ -5857,7 +5237,7 @@
       <c r="Q194" s="13"/>
       <c r="R194" s="13"/>
     </row>
-    <row r="195" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="195" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="13"/>
@@ -5877,7 +5257,7 @@
       <c r="Q195" s="13"/>
       <c r="R195" s="13"/>
     </row>
-    <row r="196" s="3" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="196" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="13"/>
@@ -5899,7 +5279,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/public/static/template/import_chw.xlsx
+++ b/public/static/template/import_chw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ztang/workspace/unc/src/visit-link-admin-web/public/static/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C7A1A1-BDF1-C144-9EC1-7C6300F0138D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308894B3-86A2-1545-9C51-A0560063E4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14680" yWindow="2180" windowWidth="22360" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27500" yWindow="1900" windowWidth="25800" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baby Roster" sheetId="1" r:id="rId1"/>
@@ -47,17 +47,17 @@
 2.校验：表格内不重复；后台内不重复</t>
   </si>
   <si>
-    <t>1.必填
-2.格式：省/市/区/街道或乡镇
-3.街道或乡镇最多只能添加3个，添加1个以上区域需用英文","隔开</t>
-  </si>
-  <si>
     <t>1. 必填
 2. 社区工作者电话:5-20位手机号码</t>
   </si>
   <si>
     <t>1.必填
 2.校验：不能超过50个字符，不允许特殊字符</t>
+  </si>
+  <si>
+    <t>1.必填
+2.格式：省/市/区/街道或乡镇
+3.街道或乡镇最多只能添加3个，添加1个以上区域需用英文";"隔开</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1307,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.75" customHeight="1"/>
@@ -1367,16 +1367,16 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="88" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>6</v>
